--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6750</v>
+        <v>5785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21129</v>
+        <v>20345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03891049936624773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02290224338433253</v>
+        <v>0.01962876571724268</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07168806710828095</v>
+        <v>0.06902700076848364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>24001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15545</v>
+        <v>14921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37340</v>
+        <v>35679</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08355534415938302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05411877768199839</v>
+        <v>0.05194453169835928</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1299928624603695</v>
+        <v>0.1242101252225388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -785,19 +785,19 @@
         <v>35469</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24030</v>
+        <v>24903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49620</v>
+        <v>49643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06094552061471718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04128946564072904</v>
+        <v>0.04279059220973879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08526051867593332</v>
+        <v>0.08529956278398192</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>283270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273609</v>
+        <v>274393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287988</v>
+        <v>288953</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9610895006337523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.928311932891719</v>
+        <v>0.9309729992315163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9770977566156674</v>
+        <v>0.9803712342827573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -835,19 +835,19 @@
         <v>263244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249905</v>
+        <v>251566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271700</v>
+        <v>272324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.916444655840617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8700071375396305</v>
+        <v>0.8757898747774612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9458812223180016</v>
+        <v>0.9480554683016407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -856,19 +856,19 @@
         <v>546514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>532363</v>
+        <v>532340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>557953</v>
+        <v>557080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9390544793852829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9147394813240667</v>
+        <v>0.914700437216018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.958710534359271</v>
+        <v>0.9572094077902612</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>25219</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15825</v>
+        <v>15716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38505</v>
+        <v>38874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04988715445420154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03130353541935794</v>
+        <v>0.03108773819696482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0761689420014358</v>
+        <v>0.07689851314257255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -981,19 +981,19 @@
         <v>47076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34213</v>
+        <v>34650</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62395</v>
+        <v>63273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08987958078202411</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06532115252161123</v>
+        <v>0.06615472834528652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1191269174801405</v>
+        <v>0.1208042037597717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1002,19 +1002,19 @@
         <v>72295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56351</v>
+        <v>55674</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91400</v>
+        <v>90358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07023767503779264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05474730975364249</v>
+        <v>0.05408914193831787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08879888991715373</v>
+        <v>0.08778610156600455</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>480308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467022</v>
+        <v>466653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489702</v>
+        <v>489811</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9501128455457984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9238310579985641</v>
+        <v>0.9231014868574273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.968696464580642</v>
+        <v>0.9689122618030351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -1052,19 +1052,19 @@
         <v>476689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>461370</v>
+        <v>460492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489552</v>
+        <v>489115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9101204192179759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8808730825198595</v>
+        <v>0.8791957962402284</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9346788474783889</v>
+        <v>0.9338452716547134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>888</v>
@@ -1073,19 +1073,19 @@
         <v>956997</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937892</v>
+        <v>938934</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>972941</v>
+        <v>973618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9297623249622073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9112011100828462</v>
+        <v>0.9122138984339954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9452526902463572</v>
+        <v>0.9459108580616821</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>9108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4012</v>
+        <v>4049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18584</v>
+        <v>18165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02810583831631742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01238100753470406</v>
+        <v>0.01249602132528113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05735083318008873</v>
+        <v>0.05605569948336767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1198,19 +1198,19 @@
         <v>27689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18591</v>
+        <v>18067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39748</v>
+        <v>39955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08119363983947017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05451564058559719</v>
+        <v>0.05297806562590752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1165572170844938</v>
+        <v>0.1171621657331445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1219,19 +1219,19 @@
         <v>36796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26371</v>
+        <v>25529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51624</v>
+        <v>50828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05532720020416815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03965220097955784</v>
+        <v>0.03838550720841937</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07762197967350153</v>
+        <v>0.07642503040854309</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>314938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305462</v>
+        <v>305881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320034</v>
+        <v>319997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9718941616836826</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9426491668199113</v>
+        <v>0.9439443005166324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876189924652959</v>
+        <v>0.9875039786747188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -1269,19 +1269,19 @@
         <v>313331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301272</v>
+        <v>301065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322429</v>
+        <v>322953</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9188063601605299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8834427829155058</v>
+        <v>0.8828378342668554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9454843594144028</v>
+        <v>0.9470219343740924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -1290,19 +1290,19 @@
         <v>628270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613442</v>
+        <v>614238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638695</v>
+        <v>639537</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9446727997958319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9223780203264983</v>
+        <v>0.9235749695914566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9603477990204421</v>
+        <v>0.9616144927915806</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>15368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9464</v>
+        <v>8602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25982</v>
+        <v>24852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04109177981358057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02530522509868714</v>
+        <v>0.02300116717986463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06947526400632101</v>
+        <v>0.0664528323306426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1415,19 +1415,19 @@
         <v>52198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39350</v>
+        <v>40490</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65836</v>
+        <v>66936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.134203055632716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1011685684086146</v>
+        <v>0.10410032528466</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.169264880969584</v>
+        <v>0.1720945049221035</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -1436,19 +1436,19 @@
         <v>67566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52780</v>
+        <v>53502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84287</v>
+        <v>85079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08856084747481391</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06918036714850136</v>
+        <v>0.07012726336599225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1104781634663116</v>
+        <v>0.1115160945882451</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>358614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348000</v>
+        <v>349130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364518</v>
+        <v>365380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9589082201864194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305247359936789</v>
+        <v>0.9335471676693571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9746947749013125</v>
+        <v>0.976998832820135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -1486,19 +1486,19 @@
         <v>336753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323115</v>
+        <v>322015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349601</v>
+        <v>348461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8657969443672839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.830735119030416</v>
+        <v>0.8279054950778965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8988314315913853</v>
+        <v>0.8958996747153399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>650</v>
@@ -1507,19 +1507,19 @@
         <v>695367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>678646</v>
+        <v>677854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>710153</v>
+        <v>709431</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9114391525251861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8895218365336883</v>
+        <v>0.8884839054117549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9308196328514987</v>
+        <v>0.9298727366340077</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>17603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11030</v>
+        <v>10293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28427</v>
+        <v>27222</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08279323085203191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05187646929125705</v>
+        <v>0.0484094176091145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1337002088742535</v>
+        <v>0.1280337271710708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1632,19 +1632,19 @@
         <v>38301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27705</v>
+        <v>27591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51143</v>
+        <v>50948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1744179914724683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1261658092624248</v>
+        <v>0.1256477366815261</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2329016162651256</v>
+        <v>0.2320147903537598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1653,19 +1653,19 @@
         <v>55904</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40870</v>
+        <v>42630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69758</v>
+        <v>71509</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293447163066816</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09456066151299369</v>
+        <v>0.09863329038735436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1613989115345381</v>
+        <v>0.1654511847279239</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>195015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184191</v>
+        <v>185396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201588</v>
+        <v>202325</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9172067691479681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8662997911257463</v>
+        <v>0.8719662728289291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.948123530708743</v>
+        <v>0.9515905823908855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -1703,19 +1703,19 @@
         <v>181290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168448</v>
+        <v>168643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191886</v>
+        <v>192000</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8255820085275317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7670983837348744</v>
+        <v>0.7679852096462403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8738341907375753</v>
+        <v>0.874352263318474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -1724,19 +1724,19 @@
         <v>376305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>362451</v>
+        <v>360700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391339</v>
+        <v>389579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8706552836933185</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8386010884654619</v>
+        <v>0.8345488152720759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9054393384870063</v>
+        <v>0.9013667096126453</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>13464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7117</v>
+        <v>7233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21573</v>
+        <v>22481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04914329432616877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02597598259392321</v>
+        <v>0.02640039873525447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07873832029446999</v>
+        <v>0.08205341586242342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1849,19 +1849,19 @@
         <v>17592</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10599</v>
+        <v>10392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26669</v>
+        <v>26247</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06282065185768004</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03785035859910176</v>
+        <v>0.03710948494563065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09523534649756943</v>
+        <v>0.09372766561349326</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1870,19 +1870,19 @@
         <v>31056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21847</v>
+        <v>22028</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43113</v>
+        <v>43693</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05605665372865674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03943427558307279</v>
+        <v>0.03976003079378763</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07781891467168381</v>
+        <v>0.07886662465207871</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>260517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252408</v>
+        <v>251500</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266864</v>
+        <v>266748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9508567056738312</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9212616797055302</v>
+        <v>0.9179465841375773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9740240174060768</v>
+        <v>0.9735996012647457</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1920,19 +1920,19 @@
         <v>262439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253362</v>
+        <v>253784</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269432</v>
+        <v>269639</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.93717934814232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.904764653502431</v>
+        <v>0.9062723343865067</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9621496414008985</v>
+        <v>0.9628905150543694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -1941,19 +1941,19 @@
         <v>522956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>510899</v>
+        <v>510319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532165</v>
+        <v>531984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9439433462713432</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9221810853283161</v>
+        <v>0.9211333753479212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9605657244169272</v>
+        <v>0.9602399692062124</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>17154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9966</v>
+        <v>9980</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26565</v>
+        <v>26224</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02588086491263936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01503653982380889</v>
+        <v>0.01505737209047996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04008107369046827</v>
+        <v>0.03956561603813672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2066,19 +2066,19 @@
         <v>63069</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49033</v>
+        <v>47320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79977</v>
+        <v>79728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09089696712204018</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0706670078730236</v>
+        <v>0.06819846376083046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1152646658326785</v>
+        <v>0.1149057829932749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -2087,19 +2087,19 @@
         <v>80223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63956</v>
+        <v>64220</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100551</v>
+        <v>101369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.059133298925175</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04714324853747502</v>
+        <v>0.04733733876756374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07411775969018532</v>
+        <v>0.07472057142297499</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>645634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>636223</v>
+        <v>636564</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652822</v>
+        <v>652808</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9741191350873606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9599189263095318</v>
+        <v>0.9604343839618633</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9849634601761912</v>
+        <v>0.98494262790952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>580</v>
@@ -2137,19 +2137,19 @@
         <v>630784</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>613876</v>
+        <v>614125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>644820</v>
+        <v>646533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9091030328779598</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8847353341673214</v>
+        <v>0.8850942170067251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9293329921269762</v>
+        <v>0.9318015362391696</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1181</v>
@@ -2158,19 +2158,19 @@
         <v>1276418</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1256090</v>
+        <v>1255272</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1292685</v>
+        <v>1292421</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.940866701074825</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9258822403098148</v>
+        <v>0.9252794285770253</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9528567514625251</v>
+        <v>0.9526626612324363</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>12922</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7287</v>
+        <v>6953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22402</v>
+        <v>21369</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01658644644477123</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009352697048753434</v>
+        <v>0.008924724653924885</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02875438161377867</v>
+        <v>0.0274275601929584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2283,19 +2283,19 @@
         <v>60109</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46204</v>
+        <v>46282</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76407</v>
+        <v>76194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07296100854478868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05608228394128584</v>
+        <v>0.05617783141069189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09274352163500225</v>
+        <v>0.09248503426930113</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2304,19 +2304,19 @@
         <v>73032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56791</v>
+        <v>57167</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91584</v>
+        <v>91210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04556072222611066</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03542931903498412</v>
+        <v>0.03566348708900929</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0571345093537922</v>
+        <v>0.05690104532942058</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>766176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756696</v>
+        <v>757729</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771811</v>
+        <v>772145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9834135535552287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9712456183862218</v>
+        <v>0.9725724398070419</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9906473029512466</v>
+        <v>0.9910752753460774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -2354,19 +2354,19 @@
         <v>763744</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747446</v>
+        <v>747659</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>777649</v>
+        <v>777571</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9270389914552113</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9072564783649979</v>
+        <v>0.9075149657306989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9439177160587142</v>
+        <v>0.9438221685893083</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1407</v>
@@ -2375,19 +2375,19 @@
         <v>1529919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1511367</v>
+        <v>1511741</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1546160</v>
+        <v>1545784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9544392777738894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9428654906462077</v>
+        <v>0.9430989546705794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9645706809650159</v>
+        <v>0.9643365129109908</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>122307</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03569140786482511</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>303</v>
@@ -2500,19 +2500,19 @@
         <v>330034</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0927503292991733</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>415</v>
@@ -2521,19 +2521,19 @@
         <v>452341</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06475808250246029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3304472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3281343</v>
+        <v>3280102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3326309</v>
+        <v>3325115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9643085921351749</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9575588766894577</v>
+        <v>0.9571969254890377</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9706808309723578</v>
+        <v>0.9703325927438551</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2995</v>
@@ -2571,19 +2571,19 @@
         <v>3228275</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3188093</v>
+        <v>3189108</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3259825</v>
+        <v>3261831</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9072496707008267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8959573146961428</v>
+        <v>0.8962425932204576</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9161163101759139</v>
+        <v>0.9166802171674731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6092</v>
@@ -2592,19 +2592,19 @@
         <v>6532747</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6490868</v>
+        <v>6489091</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6577503</v>
+        <v>6574036</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9352419174975397</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9292463992168587</v>
+        <v>0.9289920400162504</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9416492054565967</v>
+        <v>0.9411529060549607</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>11062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5991</v>
+        <v>5712</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19658</v>
+        <v>19515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03765775547833955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0203926707721096</v>
+        <v>0.0194456580906628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06691838624634636</v>
+        <v>0.06643158239263974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2961,19 +2961,19 @@
         <v>37862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27403</v>
+        <v>27519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51198</v>
+        <v>52804</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.13114570851312</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09491629612441846</v>
+        <v>0.09532019204404418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1773371511133489</v>
+        <v>0.1829001285315592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2982,19 +2982,19 @@
         <v>48925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37424</v>
+        <v>36388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65277</v>
+        <v>63809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08399581664563607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06425158863562894</v>
+        <v>0.06247218770189365</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1120711367614842</v>
+        <v>0.1095501725603497</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>282699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274103</v>
+        <v>274246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287770</v>
+        <v>288049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9623422445216605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9330816137536536</v>
+        <v>0.9335684176073602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9796073292278904</v>
+        <v>0.9805543419093371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -3032,19 +3032,19 @@
         <v>250841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237505</v>
+        <v>235899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261300</v>
+        <v>261184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.86885429148688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8226628488866512</v>
+        <v>0.817099871468441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9050837038755816</v>
+        <v>0.9046798079559558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>498</v>
@@ -3053,19 +3053,19 @@
         <v>533539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517187</v>
+        <v>518655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545040</v>
+        <v>546076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.916004183354364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8879288632385163</v>
+        <v>0.8904498274396502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9357484113643713</v>
+        <v>0.9375278122981063</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>4711</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1738</v>
+        <v>1715</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10587</v>
+        <v>10384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009373798127620365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003457381017102783</v>
+        <v>0.003412449682199141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02106571164610862</v>
+        <v>0.02066167631077448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3178,19 +3178,19 @@
         <v>28102</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17812</v>
+        <v>18201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39879</v>
+        <v>40584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0537232792677921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03405196281830468</v>
+        <v>0.03479548370395279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07623887940550249</v>
+        <v>0.07758528170451005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -3199,19 +3199,19 @@
         <v>32813</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22097</v>
+        <v>22508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46543</v>
+        <v>46875</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03199193516474581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02154400102595566</v>
+        <v>0.0219445959638798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04537909196341738</v>
+        <v>0.04570224073379218</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>497864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491988</v>
+        <v>492191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500837</v>
+        <v>500860</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9906262018723796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9789342883538912</v>
+        <v>0.9793383236892254</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965426189828972</v>
+        <v>0.9965875503178009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>460</v>
@@ -3249,19 +3249,19 @@
         <v>494982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483205</v>
+        <v>482500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>505272</v>
+        <v>504883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9462767207322079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9237611205944976</v>
+        <v>0.9224147182954899</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9659480371816953</v>
+        <v>0.9652045162960472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -3270,19 +3270,19 @@
         <v>992846</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>979116</v>
+        <v>978784</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003562</v>
+        <v>1003151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9680080648352541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9546209080365826</v>
+        <v>0.9542977592662079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9784559989740443</v>
+        <v>0.9780554040361202</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>4885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2183</v>
+        <v>1709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10490</v>
+        <v>9712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01533296543840791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006852424532641138</v>
+        <v>0.005366218442593859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03292845163821333</v>
+        <v>0.03048811437861355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3395,19 +3395,19 @@
         <v>17870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10676</v>
+        <v>10094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29926</v>
+        <v>29991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0531350522295868</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03174604311509533</v>
+        <v>0.030013342280535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08898254566061754</v>
+        <v>0.089175922703153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3416,19 +3416,19 @@
         <v>22754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14575</v>
+        <v>14224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34131</v>
+        <v>33944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03474613818599946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02225544876964053</v>
+        <v>0.02172018637721225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05211804562710261</v>
+        <v>0.05183248368152679</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>313680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308075</v>
+        <v>308853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316382</v>
+        <v>316856</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846670345615921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9670715483617867</v>
+        <v>0.9695118856213865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931475754673587</v>
+        <v>0.9946337815574061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -3466,19 +3466,19 @@
         <v>318439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306383</v>
+        <v>306318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325633</v>
+        <v>326215</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9468649477704132</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9110174543393825</v>
+        <v>0.9108240772968473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9682539568849047</v>
+        <v>0.969986657719465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -3487,19 +3487,19 @@
         <v>632120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620743</v>
+        <v>620930</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640299</v>
+        <v>640650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9652538618140005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9478819543728974</v>
+        <v>0.9481675163184733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9777445512303594</v>
+        <v>0.9782798136227884</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>17697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10454</v>
+        <v>10469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27296</v>
+        <v>26922</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04783493888082314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02825567689560701</v>
+        <v>0.02829667575486134</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07378115191112748</v>
+        <v>0.07277023706329372</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3612,19 +3612,19 @@
         <v>48342</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36971</v>
+        <v>36611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65100</v>
+        <v>63850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1248227735216671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09546170815834537</v>
+        <v>0.09453278110786567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1680943764763611</v>
+        <v>0.1648659663958781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -3633,19 +3633,19 @@
         <v>66039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50199</v>
+        <v>49925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84637</v>
+        <v>84242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08720925091736277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0662915986850789</v>
+        <v>0.06593016870198437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1117687756664562</v>
+        <v>0.1112471558667768</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>352267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342668</v>
+        <v>343042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359510</v>
+        <v>359495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9521650611191769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9262188480888726</v>
+        <v>0.9272297629367063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9717443231043931</v>
+        <v>0.9717033242451386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -3683,19 +3683,19 @@
         <v>338941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322183</v>
+        <v>323433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350312</v>
+        <v>350672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.875177226478333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8319056235236387</v>
+        <v>0.835134033604122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9045382918416546</v>
+        <v>0.9054672188921343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>652</v>
@@ -3704,19 +3704,19 @@
         <v>691208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>672610</v>
+        <v>673005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707048</v>
+        <v>707322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9127907490826372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8882312243335438</v>
+        <v>0.8887528441332232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9337084013149211</v>
+        <v>0.9340698312980156</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>9505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4693</v>
+        <v>4806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16046</v>
+        <v>16626</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04500023486807675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02221860500873186</v>
+        <v>0.02275156035020028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07596987213749329</v>
+        <v>0.07871534412834162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3829,19 +3829,19 @@
         <v>21937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13855</v>
+        <v>13917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31725</v>
+        <v>32616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1003568018044222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06338400694182168</v>
+        <v>0.0636700072793832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1451353511790922</v>
+        <v>0.1492114648981015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -3850,19 +3850,19 @@
         <v>31442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21459</v>
+        <v>21581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43350</v>
+        <v>42481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07315286568447617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04992715727705496</v>
+        <v>0.05021019245410934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.100858562578593</v>
+        <v>0.09883802393671298</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>201716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195175</v>
+        <v>194595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206528</v>
+        <v>206415</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9549997651319232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9240301278625068</v>
+        <v>0.9212846558716588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9777813949912681</v>
+        <v>0.9772484396497998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>202</v>
@@ -3900,19 +3900,19 @@
         <v>196650</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186862</v>
+        <v>185971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204732</v>
+        <v>204670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8996431981955778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8548646488209078</v>
+        <v>0.8507885351018984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9366159930581783</v>
+        <v>0.9363299927206168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -3921,19 +3921,19 @@
         <v>398366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386458</v>
+        <v>387327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408349</v>
+        <v>408227</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9268471343155238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8991414374214071</v>
+        <v>0.9011619760632871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9500728427229452</v>
+        <v>0.9497898075458908</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>6914</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3333</v>
+        <v>3111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14151</v>
+        <v>13318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0262755401788468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0126664186650186</v>
+        <v>0.01182159467400604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05378132804334631</v>
+        <v>0.05061599921098806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4046,19 +4046,19 @@
         <v>18096</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10846</v>
+        <v>10859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28939</v>
+        <v>28980</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06625776427572606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03971244090840625</v>
+        <v>0.03975876182867358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1059591530119399</v>
+        <v>0.106108058903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -4067,19 +4067,19 @@
         <v>25010</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15973</v>
+        <v>16391</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36885</v>
+        <v>35868</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04663915700466087</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02978750524337096</v>
+        <v>0.03056708654206805</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06878403088595421</v>
+        <v>0.06688745238787382</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>256209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248972</v>
+        <v>249805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259790</v>
+        <v>260012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9737244598211532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9462186719566538</v>
+        <v>0.9493840007890121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9873335813349814</v>
+        <v>0.988178405325994</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -4117,19 +4117,19 @@
         <v>255019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244176</v>
+        <v>244135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262269</v>
+        <v>262256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.933742235724274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8940408469880602</v>
+        <v>0.8938919410970002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9602875590915937</v>
+        <v>0.9602412381713264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>498</v>
@@ -4138,19 +4138,19 @@
         <v>511228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>499353</v>
+        <v>500370</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520265</v>
+        <v>519847</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9533608429953392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9312159691140458</v>
+        <v>0.9331125476121263</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9702124947566293</v>
+        <v>0.9694329134579321</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>26545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17300</v>
+        <v>17377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37996</v>
+        <v>38351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04042980932694198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02634909521993876</v>
+        <v>0.02646680763676466</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05787163660941205</v>
+        <v>0.05841269098082993</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -4263,19 +4263,19 @@
         <v>62839</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48546</v>
+        <v>48399</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78964</v>
+        <v>78442</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09090050248985912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0702251726689178</v>
+        <v>0.07001243725819271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1142256440687858</v>
+        <v>0.1134710337955108</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -4284,19 +4284,19 @@
         <v>89383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71000</v>
+        <v>72019</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109261</v>
+        <v>109986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06631550556564675</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05267608391690065</v>
+        <v>0.05343234144589582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08106316383497766</v>
+        <v>0.08160103407110364</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>630013</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>618562</v>
+        <v>618207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>639258</v>
+        <v>639181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.959570190673058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9421283633905878</v>
+        <v>0.9415873090191701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9736509047800607</v>
+        <v>0.9735331923632355</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>590</v>
@@ -4334,19 +4334,19 @@
         <v>628455</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>612330</v>
+        <v>612852</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>642748</v>
+        <v>642895</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9090994975101409</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8857743559312139</v>
+        <v>0.8865289662044894</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9297748273310822</v>
+        <v>0.9299875627418074</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1145</v>
@@ -4355,19 +4355,19 @@
         <v>1258469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1238591</v>
+        <v>1237866</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1276852</v>
+        <v>1275833</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9336844944343533</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9189368361650224</v>
+        <v>0.9183989659288967</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9473239160830994</v>
+        <v>0.9465676585541043</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>24771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16323</v>
+        <v>16015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36515</v>
+        <v>36275</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03181515098762838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02096521050379509</v>
+        <v>0.02056906451025369</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04689916400506669</v>
+        <v>0.04659120574949237</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4480,19 +4480,19 @@
         <v>82618</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63713</v>
+        <v>66355</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103316</v>
+        <v>103557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1000014578100137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.077118191815342</v>
+        <v>0.08031687767413408</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1250541010954353</v>
+        <v>0.1253465771595205</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -4501,19 +4501,19 @@
         <v>107389</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>88156</v>
+        <v>87672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130778</v>
+        <v>129566</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06691923369648423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05493462673917143</v>
+        <v>0.05463276799697135</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08149457206476403</v>
+        <v>0.08073909178754149</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>753812</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>742068</v>
+        <v>742308</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>762260</v>
+        <v>762568</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9681848490123717</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9531008359949334</v>
+        <v>0.9534087942505082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.979034789496205</v>
+        <v>0.9794309354897472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>686</v>
@@ -4551,19 +4551,19 @@
         <v>743549</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>722851</v>
+        <v>722610</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>762454</v>
+        <v>759812</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8999985421899863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8749458989045648</v>
+        <v>0.8746534228404793</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.922881808184658</v>
+        <v>0.9196831223258659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1412</v>
@@ -4572,19 +4572,19 @@
         <v>1497361</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1473972</v>
+        <v>1475184</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1516594</v>
+        <v>1517078</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9330807663035158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9185054279352359</v>
+        <v>0.9192609082124584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9450653732608286</v>
+        <v>0.9453672320030286</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>106089</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03125461545646276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>277</v>
@@ -4697,19 +4697,19 @@
         <v>317665</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08962089871253845</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>384</v>
@@ -4718,19 +4718,19 @@
         <v>423754</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06106942337186406</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3288261</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3266611</v>
+        <v>3265690</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3307176</v>
+        <v>3307533</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9687453845435372</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.962367216667224</v>
+        <v>0.9620958379412766</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9743178142401151</v>
+        <v>0.9744230539391879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3061</v>
@@ -4768,19 +4768,19 @@
         <v>3226877</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3188022</v>
+        <v>3187064</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3263034</v>
+        <v>3258584</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9103791012874616</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8994172637637066</v>
+        <v>0.8991468572358657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9205800016610244</v>
+        <v>0.9193245019578256</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6185</v>
@@ -4789,19 +4789,19 @@
         <v>6515138</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6469806</v>
+        <v>6472111</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6556360</v>
+        <v>6552768</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9389305766281359</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9323975394465313</v>
+        <v>0.9327296797586631</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9448713314697027</v>
+        <v>0.9443536747249188</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>7931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4223</v>
+        <v>3979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15145</v>
+        <v>13905</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02487378495305972</v>
+        <v>0.02487378495305973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01324370625931632</v>
+        <v>0.01247957215928859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04750083529346118</v>
+        <v>0.04361037409166821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -5158,19 +5158,19 @@
         <v>18484</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13138</v>
+        <v>12952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25018</v>
+        <v>24381</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05848246661680601</v>
+        <v>0.05848246661680602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04156780799624632</v>
+        <v>0.0409806728559397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07915623349266371</v>
+        <v>0.07714113471466995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -5179,19 +5179,19 @@
         <v>26415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19196</v>
+        <v>19853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34991</v>
+        <v>35242</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04160442351460384</v>
+        <v>0.04160442351460385</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0302344966511989</v>
+        <v>0.03126934378983355</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05511257147043616</v>
+        <v>0.0555076620488523</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>310914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303700</v>
+        <v>304940</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314622</v>
+        <v>314866</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.97512621504694</v>
+        <v>0.9751262150469404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524991647065392</v>
+        <v>0.9563896259083319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867562937406837</v>
+        <v>0.9875204278407114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>502</v>
@@ -5229,19 +5229,19 @@
         <v>297577</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291043</v>
+        <v>291680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302923</v>
+        <v>303109</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.941517533383194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9208437665073362</v>
+        <v>0.92285886528533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9584321920037536</v>
+        <v>0.9590193271440604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>823</v>
@@ -5250,19 +5250,19 @@
         <v>608491</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>599915</v>
+        <v>599664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>615710</v>
+        <v>615053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9583955764853963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9448874285295642</v>
+        <v>0.9444923379511478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9697655033488012</v>
+        <v>0.9687306562101665</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>28174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18824</v>
+        <v>19532</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40505</v>
+        <v>42261</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0530933985632238</v>
+        <v>0.05309339856322379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03547443573076504</v>
+        <v>0.03680709290922867</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07633197999971196</v>
+        <v>0.0796397740072254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -5375,19 +5375,19 @@
         <v>70617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58556</v>
+        <v>58518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84898</v>
+        <v>84713</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.129218065397588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1071481310484588</v>
+        <v>0.1070789413407077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1553511563356723</v>
+        <v>0.1550111491413463</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -5396,19 +5396,19 @@
         <v>98791</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82825</v>
+        <v>82656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118982</v>
+        <v>116583</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09171572045370452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07689321567976404</v>
+        <v>0.07673669438106025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1104609978446075</v>
+        <v>0.1082336687329505</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>502473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490142</v>
+        <v>488386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>511823</v>
+        <v>511115</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9469066014367762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.923668020000288</v>
+        <v>0.9203602259927728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9645255642692349</v>
+        <v>0.9631929070907713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -5446,19 +5446,19 @@
         <v>475877</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>461596</v>
+        <v>461781</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>487938</v>
+        <v>487976</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8707819346024119</v>
+        <v>0.8707819346024118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8446488436643275</v>
+        <v>0.8449888508586534</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.892851868951541</v>
+        <v>0.8929210586592921</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>968</v>
@@ -5467,19 +5467,19 @@
         <v>978350</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>958159</v>
+        <v>960558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>994316</v>
+        <v>994485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9082842795462955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8895390021553927</v>
+        <v>0.8917663312670495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.923106784320236</v>
+        <v>0.9232633056189397</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>34187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24727</v>
+        <v>26686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43719</v>
+        <v>44836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081897508870179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07825284854311999</v>
+        <v>0.08445071489374564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1383547890140744</v>
+        <v>0.1418879084685921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -5592,19 +5592,19 @@
         <v>56545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46166</v>
+        <v>46681</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66875</v>
+        <v>68296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1586654355894725</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.129541960326764</v>
+        <v>0.1309853686619996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.187650819823572</v>
+        <v>0.1916382008903019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -5613,19 +5613,19 @@
         <v>90733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76780</v>
+        <v>77033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106278</v>
+        <v>105302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.134943568853979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1141917999517278</v>
+        <v>0.1145680786976453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1580636192656623</v>
+        <v>0.1566113511966714</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>281806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272274</v>
+        <v>271157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291266</v>
+        <v>289307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8918102491129821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8616452109859255</v>
+        <v>0.8581120915314083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9217471514568801</v>
+        <v>0.9155492851062548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -5663,19 +5663,19 @@
         <v>299836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289506</v>
+        <v>288085</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>310215</v>
+        <v>309700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8413345644105276</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8123491801764281</v>
+        <v>0.8083617991096981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8704580396732362</v>
+        <v>0.8690146313380005</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>739</v>
@@ -5684,19 +5684,19 @@
         <v>581642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>566097</v>
+        <v>567073</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595595</v>
+        <v>595342</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8650564311460212</v>
+        <v>0.865056431146021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8419363807343377</v>
+        <v>0.8433886488033288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8858082000482721</v>
+        <v>0.885431921302355</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>32397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22564</v>
+        <v>22928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45692</v>
+        <v>44433</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08682082581914885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06047060471538061</v>
+        <v>0.06144438480059891</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1224497899887793</v>
+        <v>0.1190771437636597</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -5809,19 +5809,19 @@
         <v>62063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51258</v>
+        <v>51977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73559</v>
+        <v>74533</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.147082801628496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1214751097355281</v>
+        <v>0.1231803779912224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1743259664883496</v>
+        <v>0.1766357704229809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -5830,19 +5830,19 @@
         <v>94460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78939</v>
+        <v>78434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109126</v>
+        <v>110583</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1188017288209792</v>
+        <v>0.1188017288209793</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09928077769548271</v>
+        <v>0.09864594672761219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1372466714118953</v>
+        <v>0.13907916129487</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>340748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327453</v>
+        <v>328712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350581</v>
+        <v>350217</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.913179174180851</v>
+        <v>0.9131791741808511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8775502100112207</v>
+        <v>0.8809228562363401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9395293952846194</v>
+        <v>0.9385556151994011</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>472</v>
@@ -5880,19 +5880,19 @@
         <v>359898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348402</v>
+        <v>347428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370703</v>
+        <v>369984</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.852917198371504</v>
+        <v>0.8529171983715041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8256740335116503</v>
+        <v>0.8233642295770182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8785248902644721</v>
+        <v>0.8768196220087774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -5901,19 +5901,19 @@
         <v>700647</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>685981</v>
+        <v>684524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716168</v>
+        <v>716673</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8811982711790208</v>
+        <v>0.8811982711790207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8627533285881043</v>
+        <v>0.8609208387051298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9007192223045171</v>
+        <v>0.9013540532723877</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>10895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7061</v>
+        <v>6964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16947</v>
+        <v>16981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05297546684319485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03433355174478036</v>
+        <v>0.03386092102520664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08240294465290934</v>
+        <v>0.08256803543016721</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -6026,19 +6026,19 @@
         <v>30172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23721</v>
+        <v>24291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37275</v>
+        <v>37381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1318015767807312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1036206632578803</v>
+        <v>0.1061133463109056</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1628333068210076</v>
+        <v>0.1632961148689566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -6047,19 +6047,19 @@
         <v>41067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33565</v>
+        <v>33856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49698</v>
+        <v>49805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09449736670283866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07723583141009147</v>
+        <v>0.07790438993444895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1143581854499671</v>
+        <v>0.1146038722220283</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>194770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188718</v>
+        <v>188684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198604</v>
+        <v>198701</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.947024533156805</v>
+        <v>0.9470245331568052</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9175970553470906</v>
+        <v>0.9174319645698326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9656664482552194</v>
+        <v>0.9661390789747933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>419</v>
@@ -6097,19 +6097,19 @@
         <v>198746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191643</v>
+        <v>191537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205197</v>
+        <v>204627</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8681984232192689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8371666931789925</v>
+        <v>0.8367038851310437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8963793367421198</v>
+        <v>0.8938866536890944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>679</v>
@@ -6118,19 +6118,19 @@
         <v>393515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384884</v>
+        <v>384777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401017</v>
+        <v>400726</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9055026332971615</v>
+        <v>0.9055026332971614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.885641814550033</v>
+        <v>0.8853961277779717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9227641685899085</v>
+        <v>0.9220956100655511</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>40466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31728</v>
+        <v>31678</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50478</v>
+        <v>49992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1494821570243048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.117204818442527</v>
+        <v>0.1170189158218436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1864684742297304</v>
+        <v>0.1846717350901907</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -6243,19 +6243,19 @@
         <v>66783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56436</v>
+        <v>57432</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76549</v>
+        <v>77861</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2532053481796372</v>
+        <v>0.2532053481796371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2139769206540325</v>
+        <v>0.2177509260443598</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.290233155934891</v>
+        <v>0.2952088170026393</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>226</v>
@@ -6264,19 +6264,19 @@
         <v>107249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93866</v>
+        <v>93791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120809</v>
+        <v>122340</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2006687034901016</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1756283552129658</v>
+        <v>0.1754890728366315</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2260400214017736</v>
+        <v>0.2289058808644168</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>230241</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220229</v>
+        <v>220715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238979</v>
+        <v>239029</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8505178429756952</v>
+        <v>0.8505178429756951</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8135315257702692</v>
+        <v>0.8153282649098091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8827951815574728</v>
+        <v>0.8829810841781564</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>311</v>
@@ -6314,19 +6314,19 @@
         <v>196967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187201</v>
+        <v>185889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207314</v>
+        <v>206318</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.746794651820363</v>
+        <v>0.7467946518203626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7097668440651093</v>
+        <v>0.704791182997361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7860230793459675</v>
+        <v>0.7822490739556404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>605</v>
@@ -6335,19 +6335,19 @@
         <v>427208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>413648</v>
+        <v>412117</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>440591</v>
+        <v>440666</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7993312965098983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7739599785982264</v>
+        <v>0.7710941191355831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8243716447870341</v>
+        <v>0.8245109271633684</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>58429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46005</v>
+        <v>44136</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75604</v>
+        <v>73952</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08118693859576423</v>
+        <v>0.08118693859576424</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06392368304947507</v>
+        <v>0.06132669413115285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1050517753424907</v>
+        <v>0.1027553545608312</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>222</v>
@@ -6460,19 +6460,19 @@
         <v>160689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141975</v>
+        <v>140742</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182049</v>
+        <v>181537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2081311481485886</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1838920779858815</v>
+        <v>0.182294613361683</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2357976383207107</v>
+        <v>0.2351336830108147</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>282</v>
@@ -6481,19 +6481,19 @@
         <v>219118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>194165</v>
+        <v>197499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>244660</v>
+        <v>246137</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.146887319151821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1301600033695359</v>
+        <v>0.1323948150804922</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1640091271279037</v>
+        <v>0.1649997014373627</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>661258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>644083</v>
+        <v>645735</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>673682</v>
+        <v>675551</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9188130614042359</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8949482246575091</v>
+        <v>0.8972446454391688</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9360763169505248</v>
+        <v>0.938673305868847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>738</v>
@@ -6531,19 +6531,19 @@
         <v>611368</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>590008</v>
+        <v>590520</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>630082</v>
+        <v>631315</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7918688518514113</v>
+        <v>0.7918688518514114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7642023616792891</v>
+        <v>0.7648663169891854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8161079220141184</v>
+        <v>0.8177053866383172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1277</v>
@@ -6552,19 +6552,19 @@
         <v>1272626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1247084</v>
+        <v>1245607</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1297579</v>
+        <v>1294245</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.853112680848179</v>
+        <v>0.8531126808481792</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8359908728720962</v>
+        <v>0.8350002985626376</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8698399966304642</v>
+        <v>0.867605184919508</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>34222</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25725</v>
+        <v>25194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46411</v>
+        <v>46169</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04288066584751889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03223368592439889</v>
+        <v>0.03156883822522332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05815348221276545</v>
+        <v>0.05785055606219551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>146</v>
@@ -6677,19 +6677,19 @@
         <v>96313</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80335</v>
+        <v>81332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111100</v>
+        <v>111194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1158540289186551</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09663370225511536</v>
+        <v>0.09783295810600097</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1336409731586852</v>
+        <v>0.1337544221883653</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>188</v>
@@ -6698,19 +6698,19 @@
         <v>130535</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113140</v>
+        <v>113014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150129</v>
+        <v>151211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08011211738853741</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06943625943699012</v>
+        <v>0.06935934384195458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09213722081048652</v>
+        <v>0.09280173032190452</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>763850</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751661</v>
+        <v>751903</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>772347</v>
+        <v>772878</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.957119334152481</v>
+        <v>0.9571193341524812</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9418465177872344</v>
+        <v>0.9421494439378043</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9677663140756009</v>
+        <v>0.9684311617747767</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>916</v>
@@ -6748,19 +6748,19 @@
         <v>735018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>720231</v>
+        <v>720137</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>750996</v>
+        <v>749999</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8841459710813449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8663590268413147</v>
+        <v>0.8662455778116348</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9033662977448847</v>
+        <v>0.9021670418939991</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1636</v>
@@ -6769,19 +6769,19 @@
         <v>1498868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1479274</v>
+        <v>1478192</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1516263</v>
+        <v>1516389</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9198878826114625</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9078627791895134</v>
+        <v>0.9071982696780957</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9305637405630099</v>
+        <v>0.9306406561580456</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>246701</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0698322980553981</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>968</v>
@@ -6894,19 +6894,19 @@
         <v>561666</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1503006139633613</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1292</v>
@@ -6915,19 +6915,19 @@
         <v>808367</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3286061</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3256692</v>
+        <v>3257637</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3313452</v>
+        <v>3312998</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9301677019446021</v>
+        <v>0.930167701944602</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9218543193471028</v>
+        <v>0.922121874847009</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9379210868909413</v>
+        <v>0.9377927070059912</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4399</v>
@@ -6965,19 +6965,19 @@
         <v>3175288</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3140033</v>
+        <v>3140442</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3209798</v>
+        <v>3210314</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8496993860366387</v>
+        <v>0.8496993860366386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8402652676071979</v>
+        <v>0.8403748403629937</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8589341804510526</v>
+        <v>0.8590723901944137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7451</v>
@@ -6986,19 +6986,19 @@
         <v>6461349</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6416359</v>
+        <v>6415972</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6506992</v>
+        <v>6505560</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8888034443457966</v>
+        <v>0.8888034443457963</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8826147900130583</v>
+        <v>0.8825616221827347</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8950819810601716</v>
+        <v>0.8948849995937415</v>
       </c>
     </row>
     <row r="30">
